--- a/C++/Best Tour for part 1/Best Tour (total 10 instances).xlsx
+++ b/C++/Best Tour for part 1/Best Tour (total 10 instances).xlsx
@@ -423,7 +423,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,7 +477,6 @@
         <v>175</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
